--- a/biology/Médecine/Theodor_Zwinger_III/Theodor_Zwinger_III.xlsx
+++ b/biology/Médecine/Theodor_Zwinger_III/Theodor_Zwinger_III.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Theodor Zwinger III, fils de Johann Zwinger, est un médecin suisse, né à Bâle le 6 août 1658 et mort à Fribourg-en-Brisgau le 22 avril 1724 (à 65 ans). 
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ayant achevé ses humanités, il fit son cours de philosophie et, en 1675, reçut le grade de maître ès arts. 
 Se destinant à l'exercice de la médecine, il joignit à l'étude de l'art de guérir celle de toutes les sciences accessoires et fit succéder à la lecture des ouvrages des Anciens celle des meilleurs écrits modernes. 
-Il se rendit, en 1678, à Schaffhouse, pour y suivre des leçons et à Zurich, où il se perfectionna dans la connaissance de la botanique et de l'histoire naturelle, par sa lecture de[1] Gesner, de Scheuchzer, etc.
+Il se rendit, en 1678, à Schaffhouse, pour y suivre des leçons et à Zurich, où il se perfectionna dans la connaissance de la botanique et de l'histoire naturelle, par sa lecture de Gesner, de Scheuchzer, etc.
 De retour à Bâle en 1680, il y fut reçu docteur en médecine. Quelques années plus tard, il est nommé professeur de rhétorique à l'académie en 1684, il permuta, trois ans après, cette chaire contre celle de physique.
 Il sera plus tard admis à l'Académie des sciences de Berlin et, inscrit sous le nom d'Aristote, à l'Académie des Curieux de la nature.
 On lui offrit, en 1700, la première chaire de médecine de l'académie de Leyde. Le landgrave de Hesse-Cassel et le roi de Prusse cherchèrent à se l'attacher par des offres ; mais rien ne put le décider à quitter sa ville natale. Nommé médecin et conseiller aulique du duc de Wurtemberg et du marquis de Bade-Dourlach, il reçut les mêmes titres de plusieurs princes et de diverses villes d'Allemagne.
